--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
   <si>
     <t>名字</t>
   </si>
@@ -36,8 +36,10 @@
     <t>考勤时间</t>
   </si>
   <si>
+    <t>总部主楼1楼</t>
+  </si>
+  <si>
     <t>员工编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -45,8 +47,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -117,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -128,7 +130,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -141,16 +143,7 @@
     <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,16 +424,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="19.125" customWidth="1"/>
@@ -448,19 +441,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
@@ -470,11 +461,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="7">
-        <v>42920.412719907406</v>
+        <v>42916.882337962961</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -484,10 +477,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>42919.819675925923</v>
+        <v>42916.882326388892</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7">
-        <v>42919.819664351853</v>
+        <v>42916.87835648148</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -512,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8">
-        <v>42919.40929398148</v>
+        <v>42916.410613425927</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -526,100 +519,800 @@
         <v>2</v>
       </c>
       <c r="C6" s="7">
-        <v>42920.939803240741</v>
+        <v>42916.410601851851</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>42915.832175925927</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42915.832129629627</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>42915.832106481481</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>42915.414664351854</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42915.414641203701</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>42914.837048611109</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42914.836689814816</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>42914.440613425926</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42914.027430555558</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>42913.411585648151</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>42912.801006944443</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>42912.413657407407</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>42912.413090277776</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>42909.794930555552</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>42909.783599537041</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>42909.413437499999</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>42908.809652777774</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>42908.414895833332</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>42908.414085648146</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>42907.855717592596</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8">
+        <v>42907.855706018519</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>42907.411712962959</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>42906.925416666665</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>42906.409641203703</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8">
+        <v>42905.84269675926</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>42905.411631944444</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8">
+        <v>42905.411620370367</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>42903.776759259257</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>42903.529016203705</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>42902.822557870371</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8">
+        <v>42902.411712962959</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="7">
+        <v>42902.002997685187</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>42902.002962962964</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7">
+        <v>42901.415231481478</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8">
+        <v>42900.839513888888</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7">
+        <v>42900.411747685182</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8">
+        <v>42899.835625</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7">
+        <v>42899.409479166665</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="8">
+        <v>42898.810486111113</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="7">
+        <v>42898.407442129632</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="8">
+        <v>42898.407418981478</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7">
+        <v>42896.018240740741</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="8">
+        <v>42895.412129629629</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="7">
+        <v>42894.79283564815</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="8">
+        <v>42894.409594907411</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>42893.944340277776</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8">
+        <v>42893.407453703701</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="7">
+        <v>42893.407442129632</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8">
+        <v>42892.85050925926</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7">
+        <v>42892.407476851855</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="8">
+        <v>42891.860324074078</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7">
+        <v>42891.411817129629</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>42888.797337962962</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7">
+        <v>42888.414039351854</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>107063</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="8">
+        <v>42887.835729166669</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="7">
+        <v>42887.54383101852</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D2">
-    <sortCondition ref="C2"/>
+  <sortState ref="A3:D3">
+    <sortCondition ref="C3"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="7">
   <si>
     <t>名字</t>
   </si>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1304,9 +1304,23 @@
         <v>2</v>
       </c>
       <c r="C62" s="7">
-        <v>42887.54383101852</v>
+        <v>42917.54383101852</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>107063</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="7">
+        <v>42918.54383101852</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
     </row>
